--- a/data/trans_bre/P23_DUKE_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_DUKE_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,94</t>
+          <t>12,94</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,63</t>
+          <t>-9,99</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,44</t>
+          <t>5,07</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-22,96%</t>
+          <t>-5,48</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>36,28%</t>
+          <t>17,42%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>183,26%</t>
+          <t>-12,69%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7,63%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-6,91%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 7,9</t>
+          <t>-4,31; 33,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 12,44</t>
+          <t>-29,99; 12,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 18,06</t>
+          <t>-17,35; 27,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-85,27; 315,2</t>
+          <t>-24,19; 14,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-63,68; 525,13</t>
+          <t>-4,97; 60,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-50,73; —</t>
+          <t>-34,13; 18,72</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-21,76; 53,9</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-27,23; 21,43</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>24,16</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-15,94</t>
+          <t>-4,37</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>20,87%</t>
+          <t>-4,86</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-9,05%</t>
+          <t>33,6%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-65,42%</t>
+          <t>1,66%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-4,74%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-5,15%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,11; 15,63</t>
+          <t>7,43; 55,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-22,07; 8,98</t>
+          <t>-9,44; 14,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-40,78; 3,52</t>
+          <t>-16,29; 8,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-76,83; 896,42</t>
+          <t>-18,21; 5,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-93,26; 837,21</t>
+          <t>8,0; 139,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-91,22; 79,75</t>
+          <t>-9,9; 18,44</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-17,34; 10,52</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-19,0; 6,62</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-13,55</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-11,82</t>
+          <t>6,25</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>-3,03</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-46,39%</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-50,53%</t>
+          <t>-0,52%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,4%</t>
+          <t>7,12%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-3,19%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,21%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-35,8; -1,04</t>
+          <t>-10,84; 13,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-25,87; -1,68</t>
+          <t>-2,45; 18,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,23; 9,65</t>
+          <t>-10,62; 4,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-74,02; 1,15</t>
+          <t>-10,49; 12,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-74,66; -6,22</t>
+          <t>-11,39; 18,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-45,09; 64,68</t>
+          <t>-2,84; 24,18</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-10,8; 5,53</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-11,2; 15,59</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,18</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,28</t>
+          <t>5,63</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,41</t>
+          <t>9,59</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>85,9%</t>
+          <t>-3,99</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>44,17%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>60,96%</t>
+          <t>6,36%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>11,37%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-4,3%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,23; 18,65</t>
+          <t>-6,19; 11,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 18,81</t>
+          <t>-2,89; 16,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 20,02</t>
+          <t>0,35; 20,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,35; 242,73</t>
+          <t>-12,44; 4,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,75; 138,86</t>
+          <t>-6,59; 13,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,32; 169,43</t>
+          <t>-2,98; 20,55</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0,49; 26,76</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-13,48; 5,43</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>7,97</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,78</t>
+          <t>-5,86</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,47</t>
+          <t>-8,51</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>11,61%</t>
+          <t>5,86</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-17,96%</t>
+          <t>10,4%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>23,31%</t>
+          <t>-6,4%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-9,29%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6,75%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 11,43</t>
+          <t>-8,29; 22,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-16,52; 8,07</t>
+          <t>-19,77; 5,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 16,08</t>
+          <t>-22,57; 4,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-47,82; 101,94</t>
+          <t>-7,32; 15,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-58,07; 56,6</t>
+          <t>-9,77; 32,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-39,92; 122,92</t>
+          <t>-21,56; 6,51</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-24,34; 5,4</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-7,47; 20,02</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,17</t>
+          <t>-4,06</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,36</t>
+          <t>-6,87</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>14,21</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>67,13%</t>
+          <t>-5,57</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>30,25%</t>
+          <t>-5,16%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>80,38%</t>
+          <t>-7,18%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2,49%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-5,79%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 22,85</t>
+          <t>-26,74; 17,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,2; 17,8</t>
+          <t>-20,4; 7,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 50,87</t>
+          <t>-16,22; 21,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-34,67; 362,39</t>
+          <t>-17,75; 6,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-50,71; 322,41</t>
+          <t>-30,56; 24,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-44,85; 739,0</t>
+          <t>-20,81; 8,71</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-17,6; 30,12</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-17,83; 7,51</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>7,6</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,38%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>21,48%</t>
+          <t>0,4%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,98%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-2,99%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 5,86</t>
+          <t>1,84; 16,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 5,02</t>
+          <t>-4,67; 5,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 12,46</t>
+          <t>-5,07; 6,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-29,22; 47,51</t>
+          <t>-8,67; 2,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-29,23; 38,19</t>
+          <t>2,16; 21,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,06; 92,97</t>
+          <t>-5,19; 6,98</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-5,66; 8,54</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-9,4; 2,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P23_DUKE_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_DUKE_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>12,94</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-9,99</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>5,07</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-5,48</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>17,42%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-12,69%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>7,63%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-6,91%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>14.82492006343894</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-7.733873378045397</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>5.488566541962392</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-3.941993264415755</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.2039746332800433</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.09793514812275428</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.0846912966661168</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.05059297960091164</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,31; 33,0</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-29,99; 12,87</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-17,35; 27,24</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-24,19; 14,01</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-4,97; 60,12</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-34,13; 18,72</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-21,76; 53,9</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-27,23; 21,43</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.997487688979965</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-27.48380957572414</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-16.93160945251502</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-23.559468558168</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.01756782110297046</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.3049547421411555</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.2127328966915768</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.2669526006567088</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>36.0172156743667</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>15.98122044488075</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>28.42979272781985</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>17.23820749390887</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.6832833620057883</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.2461732629901346</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.5855603733419006</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.2691117831087327</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>24,16</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,51</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-4,37</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-4,86</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>33,6%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>1,66%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-4,74%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-5,15%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>7,43; 55,87</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-9,44; 14,93</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-16,29; 8,74</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-18,21; 5,95</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>8,0; 139,82</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-9,9; 18,44</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-17,34; 10,52</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-19,0; 6,62</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>28.36488089748511</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>3.102477281513849</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-4.146223887738243</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-3.791324015877018</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.4187704066947643</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.03505797711224883</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.04501698522114466</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.04062084550843756</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,46</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>6,25</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-3,03</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,18</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-0,52%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>7,12%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-3,19%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-0,21%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>9.594487320631757</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-9.359593139419072</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-15.9794341318266</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-17.44724409717304</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.1096722955812599</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.09828809558090758</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.1717159712889755</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1844958644961327</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-10,84; 13,87</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,45; 18,85</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-10,62; 4,93</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-10,49; 12,7</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-11,39; 18,19</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-2,84; 24,18</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-10,8; 5,53</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-11,2; 15,59</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>55.96919590630732</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>19.14751369925752</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>8.143833896770163</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>8.384721029386922</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.325208035890856</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.249895947503963</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.09695447305944151</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.09311704709460382</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +827,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,25</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>5,63</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>9,59</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-3,99</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>1,37%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>6,36%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>11,37%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-4,3%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-1.804311297913841</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>5.760697442657703</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-3.481991372292037</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.843325591097499</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.02005441644554722</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.06494387126846865</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.03654071614058616</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.009563640264079519</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-6,19; 11,04</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,89; 16,6</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,35; 20,05</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-12,44; 4,81</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-6,59; 13,01</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-2,98; 20,55</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>0,49; 26,76</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-13,48; 5,43</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-11.2477716986229</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-2.284551360126472</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-11.63008382988858</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-10.66389608677111</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.1179998706568208</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.02439221454398517</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.1178849958295904</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.1130692898551242</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>11.23466085232047</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>17.56637400574957</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>4.035554199787194</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>11.64597863179149</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.1420174271961487</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.2221540368742762</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.0440588461001616</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.1483398467448414</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>7,97</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-5,86</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-8,51</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>5,86</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>10,4%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-6,4%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-9,29%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>6,75%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-8,29; 22,01</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-19,77; 5,83</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-22,57; 4,87</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-7,32; 15,68</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-9,77; 32,59</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-21,56; 6,51</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-24,34; 5,4</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-7,47; 20,02</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>0.4877908100584971</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>6.574597411249938</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>10.65335448087623</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-4.233843560787898</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.005365836347752208</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.07500692409247615</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.1279618839480027</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.04582978610070085</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-4,06</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-6,87</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,1</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-5,57</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-5,16%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-7,18%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>2,49%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-5,79%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-8.563873707797081</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.219012892745459</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>1.259377375649294</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-13.47441691211919</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.0903149499426294</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.02312094646088715</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.01473532384207576</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1398867745288249</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-26,74; 17,3</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-20,4; 7,71</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-16,22; 21,66</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-17,75; 6,72</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-30,56; 24,83</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-20,81; 8,71</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-17,6; 30,12</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-17,83; 7,51</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>10.92864707385833</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>18.05020281205973</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>22.33335282308909</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>4.832583044647992</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.1311166494940995</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.2328928537586982</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.3075155006564055</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.05498861105318564</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +1027,297 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>7,6</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,35</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,84</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-2,69</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>9,41%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>0,4%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>0,98%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>-2,99%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>8.486231388287823</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-5.701382467773087</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-8.704597231388833</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>5.547714536749593</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.1112473730660224</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>-0.06258413101785103</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>-0.09450871700714362</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>0.06352877147454428</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>1,84; 16,02</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-4,67; 5,93</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-5,07; 6,98</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-8,67; 2,5</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>2,16; 21,81</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-5,19; 6,98</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-5,66; 8,54</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-9,4; 2,94</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-8.218445242493003</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-20.11335411459661</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-22.12405175924356</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-7.878106885302796</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.09527079036758158</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.2175019037212758</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>-0.2423931448343133</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.08398019582700438</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>22.44179926888903</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>6.465788340218157</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>4.393472436184808</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>15.16414558331037</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0.3358398838972384</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0.07387586140392541</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>0.04435861490739633</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>0.187476506552693</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-6.411964729726871</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-6.173531633036999</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-1.046723350972656</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>-5.516999499860386</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-0.08000512088387883</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-0.06453847671107567</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>-0.01231779236293929</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>-0.05695234494624157</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-28.10511813452451</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-19.03579690926384</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-24.62681481652304</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-17.27141675413782</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.3243285635186988</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.1954646048451827</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>-0.2711354610192467</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>-0.1806854657053025</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>14.11904857679299</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>8.276379915727075</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>19.0302213886491</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>4.552904506066412</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>0.1914550166051477</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>0.092563299209733</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>0.2595300861647041</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>0.05015713783231948</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>8.261513974604306</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>1.317164294930007</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.5483488041036488</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-2.296994039279088</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.1032015963419239</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.01502122755529438</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.006382799912716247</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>-0.02570983362510332</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>2.027872211266166</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-3.655212420156507</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-5.607374566212412</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-8.2225692653727</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>0.02373458518592782</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.04041832760701104</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.06296648340118949</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.08988436798665345</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>17.0814990941986</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>7.356684003608787</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>6.679936040755829</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>3.163620950308339</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.2375718629066447</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.0883988388606364</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>0.08224036415883948</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0.03661688206340599</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1325,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
